--- a/Building Performance Model Assumptions/Non-Structural Components_BRBF.xlsx
+++ b/Building Performance Model Assumptions/Non-Structural Components_BRBF.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preetish\Desktop\Journal Paper\ATC-119\Online Appendix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preetish\Desktop\Research\Journal Paper\ATC-119\Online Appendix\Building Performance Model Assumptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109BA8F1-2174-44D0-AADA-EF4AA2E42CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764BB748-D718-421E-B85F-3AE64A93E1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B2-B4" sheetId="1" r:id="rId1"/>
-    <sheet name="B1" sheetId="2" r:id="rId2"/>
-    <sheet name="L1" sheetId="3" r:id="rId3"/>
-    <sheet name="L2-L40" sheetId="6" r:id="rId4"/>
-    <sheet name="Roof" sheetId="5" r:id="rId5"/>
+    <sheet name="Definitions" sheetId="7" r:id="rId1"/>
+    <sheet name="B2-B4" sheetId="1" r:id="rId2"/>
+    <sheet name="B1" sheetId="2" r:id="rId3"/>
+    <sheet name="L1" sheetId="3" r:id="rId4"/>
+    <sheet name="L2-L40" sheetId="6" r:id="rId5"/>
+    <sheet name="Roof" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="158">
   <si>
     <t>Floor</t>
   </si>
@@ -1127,13 +1129,184 @@
   </si>
   <si>
     <t>L2-L40</t>
+  </si>
+  <si>
+    <t>NISTR</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology Interagency Reports</t>
+  </si>
+  <si>
+    <t>North-South quantity per floor</t>
+  </si>
+  <si>
+    <t>East-West quantity per floor</t>
+  </si>
+  <si>
+    <t>Damage State</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Repair Class</t>
+  </si>
+  <si>
+    <t>Repair Class (As defined below)</t>
+  </si>
+  <si>
+    <t>Repair Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Heavily damaged </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-structural</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> components which pose a risk to life-safety and must be repaired to achieve Re-occupancy. Consequently, these components must also be repaired to achieve Functional Recovery and Full Recovery, since by definition they follow Re-occupancy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Damaged </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components which do not pose a "life-safety" risk or otherwise hinder Re-occupancy but must be repaired to achieve Functional Recovery. Consequently, the competent must all be prepaired to achieve Full Recovery, since by definition it follows Functional Recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimal or minor cosmetic damage to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non-structural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>components which do not hinder Re-occupancy or Functional Recovery but must be repaired to achieve Full Recovery</t>
+    </r>
+  </si>
+  <si>
+    <t>Repair Class Definitions (Source: REDi Guidelines)</t>
+  </si>
+  <si>
+    <t>DS*</t>
+  </si>
+  <si>
+    <t>* DS1, DS2 and DS3 corresponds to damage state 1, 2 and 3 respectively for the component defined by a lognormal distribution</t>
+  </si>
+  <si>
+    <t>Norm Qty</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology Normative Quantity estimation tool packaged with Federal Emergency Management Agency's  Performance Assessment Calculation Tool</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>Seismic Performance Prediction Program by Haselton Baker Risk Group</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,13 +1352,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1239,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1267,17 +1480,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,20 +1494,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,11 +1856,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60794CE-A3C2-43E8-9B18-B9CD05F150FF}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>3</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>1</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:J6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,100 +2006,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>24</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>24</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1742,7 +2112,7 @@
       <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -1756,8 +2126,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1770,7 +2140,7 @@
       <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -1784,7 +2154,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
@@ -1852,7 +2222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -1902,10 +2272,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1918,7 +2288,7 @@
       <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1934,8 +2304,8 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1948,7 +2318,7 @@
       <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1963,8 +2333,8 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1977,10 +2347,10 @@
       <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1992,7 +2362,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
@@ -2077,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
@@ -2130,7 +2500,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2161,7 +2531,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>93</v>
       </c>
@@ -2191,7 +2561,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>95</v>
       </c>
@@ -2221,7 +2591,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="8" t="s">
         <v>97</v>
       </c>
@@ -2251,7 +2621,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
@@ -2281,7 +2651,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>99</v>
       </c>
@@ -2311,7 +2681,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
         <v>101</v>
       </c>
@@ -2341,7 +2711,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>103</v>
       </c>
@@ -2371,7 +2741,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
         <v>76</v>
       </c>
@@ -2401,7 +2771,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
@@ -2431,7 +2801,7 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2838,7 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
@@ -2497,7 +2867,7 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
@@ -2526,7 +2896,7 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>105</v>
       </c>
@@ -2540,7 +2910,7 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -2555,7 +2925,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="8" t="s">
         <v>88</v>
       </c>
@@ -2569,7 +2939,7 @@
       <c r="F16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -2584,7 +2954,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>107</v>
       </c>
@@ -2598,7 +2968,7 @@
       <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -2613,7 +2983,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
@@ -2627,7 +2997,7 @@
       <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -2642,7 +3012,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
@@ -2656,7 +3026,7 @@
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2671,7 +3041,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="96" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
@@ -2703,7 +3073,7 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
@@ -2734,7 +3104,7 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
@@ -2765,7 +3135,7 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
@@ -2797,8 +3167,8 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2811,10 +3181,10 @@
       <c r="F24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="G24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -2869,12 +3239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F165D23C-27EF-4EB2-BE01-52546CABF330}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,7 +3288,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2930,7 +3300,7 @@
       <c r="D2" s="8">
         <v>0.84</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
@@ -2948,7 +3318,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="8" t="s">
         <v>101</v>
       </c>
@@ -2958,7 +3328,7 @@
       <c r="D3" s="8">
         <v>2.3559999999999999</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2976,7 +3346,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="8" t="s">
         <v>103</v>
       </c>
@@ -2986,7 +3356,7 @@
       <c r="D4" s="8">
         <v>2.3559999999999999</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
@@ -3004,7 +3374,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
         <v>76</v>
       </c>
@@ -3014,7 +3384,7 @@
       <c r="D5" s="8">
         <v>0.09</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
@@ -3032,7 +3402,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="8" t="s">
         <v>78</v>
       </c>
@@ -3042,7 +3412,7 @@
       <c r="D6" s="8">
         <v>0.09</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
@@ -3060,7 +3430,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
@@ -3070,7 +3440,7 @@
       <c r="D7" s="8">
         <v>0.94</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
@@ -3088,7 +3458,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
         <v>91</v>
       </c>
@@ -3098,7 +3468,7 @@
       <c r="D8" s="8">
         <v>16.829999999999998</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="8" t="s">
         <v>118</v>
       </c>
@@ -3116,7 +3486,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>93</v>
       </c>
@@ -3126,7 +3496,7 @@
       <c r="D9" s="8">
         <v>7.0129999999999999</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="8" t="s">
         <v>122</v>
       </c>
@@ -3144,7 +3514,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="8" t="s">
         <v>95</v>
       </c>
@@ -3154,7 +3524,7 @@
       <c r="D10" s="8">
         <v>2.3380000000000001</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="8" t="s">
         <v>130</v>
       </c>
@@ -3172,7 +3542,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>97</v>
       </c>
@@ -3182,7 +3552,7 @@
       <c r="D11" s="8">
         <v>1.6479999999999999</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="8" t="s">
         <v>126</v>
       </c>
@@ -3200,7 +3570,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
         <v>83</v>
       </c>
@@ -3210,7 +3580,7 @@
       <c r="D12" s="8">
         <v>1.0660000000000001</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
@@ -3228,7 +3598,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>85</v>
       </c>
@@ -3238,7 +3608,7 @@
       <c r="D13" s="8">
         <v>1.0660000000000001</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3626,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
@@ -3270,7 +3640,7 @@
       <c r="F14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -3284,7 +3654,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
@@ -3298,7 +3668,7 @@
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -3312,7 +3682,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
         <v>105</v>
       </c>
@@ -3326,7 +3696,7 @@
       <c r="F16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -3340,7 +3710,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>88</v>
       </c>
@@ -3354,7 +3724,7 @@
       <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -3368,7 +3738,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
         <v>107</v>
       </c>
@@ -3382,7 +3752,7 @@
       <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -3396,7 +3766,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>90</v>
       </c>
@@ -3424,7 +3794,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
@@ -3454,7 +3824,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
@@ -3484,7 +3854,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
@@ -3514,7 +3884,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
@@ -3542,7 +3912,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
@@ -3572,8 +3942,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="48" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -3586,10 +3956,10 @@
       <c r="F25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="G25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -3608,12 +3978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:XFD1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,7 +4030,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3690,7 +4060,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>109</v>
       </c>
@@ -3718,7 +4088,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>111</v>
       </c>
@@ -3728,7 +4098,7 @@
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="8" t="s">
         <v>58</v>
       </c>
@@ -3746,31 +4116,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
